--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-2-1000-18 (Экстра New)/XXI-КПМ-26-2-1000-18 (Экстра New) от 02.07.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-2-1000-18 (Экстра New)/XXI-КПМ-26-2-1000-18 (Экстра New) от 02.07.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XXI-КПМ-26-2-1000-18 (Экстра New)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6E84E9-998B-4334-875A-B9AF22338221}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7B488-145B-453F-8E59-59656D80C210}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="150">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Охладитель плунжера</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Дата приемки</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Зам. дирекотора по ПиТ</t>
-  </si>
-  <si>
     <t>И.М. Александрович</t>
   </si>
   <si>
@@ -383,12 +377,6 @@
   </si>
   <si>
     <t>Пресс головка</t>
-  </si>
-  <si>
-    <t>ХXI-КПМ-30-1-500-7</t>
-  </si>
-  <si>
-    <t>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</t>
   </si>
   <si>
     <t>Формокомплект бутылки</t>
@@ -422,12 +410,6 @@
   </si>
   <si>
     <t>Начальный ресурс формо-комплекта, шт.</t>
-  </si>
-  <si>
-    <t>Дата установки формо-комплекта</t>
-  </si>
-  <si>
-    <t>Дата      снятия формо-комплекта</t>
   </si>
   <si>
     <t>Дата текущего контроля</t>
@@ -504,6 +486,24 @@
   <si>
     <t>ХXI-КПМ-26-2-1000-18 ExtraNew</t>
   </si>
+  <si>
+    <t>Вес, гр. (ном. 700 гр.)</t>
+  </si>
+  <si>
+    <t>Дата      снятия формокомплекта</t>
+  </si>
+  <si>
+    <t>Дата установки формокомплекта</t>
+  </si>
+  <si>
+    <t>Зам. дирекотора</t>
+  </si>
+  <si>
+    <t>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</t>
+  </si>
+  <si>
+    <t>стоит</t>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +516,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -917,6 +917,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -992,7 +997,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -2120,17 +2125,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3399,24 +3393,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3427,7 +3403,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3476,53 +3452,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3608,6 +3568,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3652,11 +3645,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3669,16 +3661,80 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3689,60 +3745,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3752,29 +3754,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3782,6 +3859,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3797,110 +3888,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3910,93 +3984,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4027,6 +4014,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4036,12 +4026,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4054,8 +4044,26 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5356,19 +5364,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>23283</xdr:colOff>
+      <xdr:colOff>27661</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>560772</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>968375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+        <xdr:cNvPr id="3" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
@@ -5380,16 +5388,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="6522"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6314016" y="260350"/>
-          <a:ext cx="3589867" cy="2062692"/>
+          <a:off x="6165994" y="264583"/>
+          <a:ext cx="3496445" cy="2079625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6710,7 +6723,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6722,25 +6735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="495" t="s">
+      <c r="A1" s="490" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
+      <c r="B1" s="494"/>
+      <c r="C1" s="494"/>
+      <c r="D1" s="494"/>
+      <c r="E1" s="494"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="496" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="498"/>
+      <c r="A2" s="491" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="493"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
@@ -6751,82 +6764,82 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="495" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
+      <c r="B4" s="496"/>
+      <c r="C4" s="496"/>
+      <c r="D4" s="496"/>
+      <c r="E4" s="496"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="502" t="s">
+      <c r="A5" s="497" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="503"/>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="504"/>
+      <c r="B5" s="498"/>
+      <c r="C5" s="498"/>
+      <c r="D5" s="498"/>
+      <c r="E5" s="499"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="495" t="s">
+      <c r="A7" s="490" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="499"/>
-      <c r="C7" s="499"/>
-      <c r="D7" s="499"/>
-      <c r="E7" s="499"/>
+      <c r="B7" s="494"/>
+      <c r="C7" s="494"/>
+      <c r="D7" s="494"/>
+      <c r="E7" s="494"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="505"/>
-      <c r="B8" s="506"/>
-      <c r="C8" s="506"/>
-      <c r="D8" s="506"/>
-      <c r="E8" s="507"/>
+      <c r="A8" s="500"/>
+      <c r="B8" s="501"/>
+      <c r="C8" s="501"/>
+      <c r="D8" s="501"/>
+      <c r="E8" s="502"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="495" t="s">
+      <c r="A10" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="495"/>
+      <c r="B10" s="490"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="364"/>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="493"/>
-      <c r="B11" s="494"/>
+      <c r="A11" s="488"/>
+      <c r="B11" s="489"/>
       <c r="D11" s="369">
         <v>44014</v>
       </c>
-      <c r="F11" s="508" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="508"/>
-      <c r="H11" s="508"/>
-      <c r="I11" s="508"/>
-      <c r="J11" s="509" t="s">
+      <c r="F11" s="485" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="485"/>
+      <c r="H11" s="485"/>
+      <c r="I11" s="485"/>
+      <c r="J11" s="486" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="486"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="485" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="485"/>
+      <c r="H12" s="485"/>
+      <c r="I12" s="485"/>
+      <c r="J12" s="486" t="s">
         <v>99</v>
       </c>
-      <c r="K11" s="509"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="508" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="508"/>
-      <c r="H12" s="508"/>
-      <c r="I12" s="508"/>
-      <c r="J12" s="509" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" s="509"/>
+      <c r="K12" s="486"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6836,24 +6849,24 @@
         <v>89</v>
       </c>
       <c r="C13" s="374" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="374" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="474" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="508" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="508"/>
-      <c r="H13" s="508"/>
-      <c r="I13" s="508"/>
-      <c r="J13" s="509" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="509"/>
+        <v>131</v>
+      </c>
+      <c r="E13" s="458" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="485" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="485"/>
+      <c r="H13" s="485"/>
+      <c r="I13" s="485"/>
+      <c r="J13" s="486" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="486"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -6863,7 +6876,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6881,7 +6894,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6899,7 +6912,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
@@ -6917,7 +6930,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6932,9 +6945,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="366"/>
-      <c r="C18" s="372" t="s">
-        <v>110</v>
-      </c>
+      <c r="C18" s="372"/>
       <c r="D18" s="366">
         <v>1.29</v>
       </c>
@@ -6948,9 +6959,7 @@
         <v>90</v>
       </c>
       <c r="B19" s="366"/>
-      <c r="C19" s="372" t="s">
-        <v>110</v>
-      </c>
+      <c r="C19" s="372"/>
       <c r="D19" s="366">
         <v>0.3</v>
       </c>
@@ -6964,9 +6973,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="366"/>
-      <c r="C20" s="372" t="s">
-        <v>110</v>
-      </c>
+      <c r="C20" s="372"/>
       <c r="D20" s="366">
         <v>0.5</v>
       </c>
@@ -6980,9 +6987,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="366"/>
-      <c r="C21" s="372" t="s">
-        <v>110</v>
-      </c>
+      <c r="C21" s="372"/>
       <c r="D21" s="366">
         <v>0.4</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
@@ -7029,7 +7034,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -7056,9 +7061,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="368"/>
-      <c r="C26" s="372" t="s">
-        <v>110</v>
-      </c>
+      <c r="C26" s="372"/>
       <c r="D26" s="366">
         <v>1.5</v>
       </c>
@@ -7069,7 +7072,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="367" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="373"/>
       <c r="C27" s="375"/>
@@ -7092,25 +7095,19 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="492" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="492"/>
-      <c r="C29" s="492"/>
+      <c r="A29" s="487" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="487"/>
+      <c r="C29" s="487"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7120,6 +7117,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7173,47 +7176,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="614"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7224,9 +7227,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7245,22 +7248,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7271,22 +7274,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7297,27 +7300,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7696,28 +7699,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="L21" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="620"/>
+      <c r="N21" s="620"/>
+      <c r="O21" s="459"/>
+      <c r="P21" s="459"/>
+      <c r="Q21" s="475"/>
+      <c r="R21" s="475"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R22" s="561"/>
+      <c r="O22" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="542"/>
+      <c r="Q22" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7734,11 +7742,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7804,47 +7807,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="614"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7855,9 +7858,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7876,22 +7879,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7902,22 +7905,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7928,27 +7931,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8277,12 +8280,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="637" t="s">
+      <c r="B18" s="631" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="638"/>
-      <c r="D18" s="638"/>
-      <c r="E18" s="639"/>
+      <c r="C18" s="632"/>
+      <c r="D18" s="632"/>
+      <c r="E18" s="633"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8325,28 +8328,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M21" s="627"/>
-      <c r="N21" s="627"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="L21" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="620"/>
+      <c r="N21" s="620"/>
+      <c r="O21" s="459"/>
+      <c r="P21" s="459"/>
+      <c r="Q21" s="475"/>
+      <c r="R21" s="475"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R22" s="561"/>
+      <c r="O22" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P22" s="542"/>
+      <c r="Q22" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8360,15 +8372,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8443,47 +8446,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="614"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8494,9 +8497,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8515,22 +8518,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8541,22 +8544,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8567,27 +8570,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8898,28 +8901,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="L19" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="620"/>
+      <c r="N19" s="620"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="542"/>
+      <c r="Q20" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8936,11 +8944,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8997,47 +9000,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="642">
+      <c r="J2" s="610"/>
+      <c r="K2" s="636">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="643"/>
+      <c r="L2" s="637"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="644"/>
-      <c r="L3" s="645"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="639"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9048,9 +9051,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9069,22 +9072,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9095,22 +9098,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9121,27 +9124,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9407,28 +9410,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="L18" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="620"/>
+      <c r="N18" s="620"/>
+      <c r="O18" s="459"/>
+      <c r="P18" s="459"/>
+      <c r="Q18" s="475"/>
+      <c r="R18" s="475"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R19" s="561"/>
+      <c r="O19" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="542"/>
+      <c r="Q19" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9445,11 +9453,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9476,35 +9479,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
-        <v>112</v>
+      <c r="B1" s="457" t="s">
+        <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="456" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
@@ -9520,7 +9523,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9534,17 +9537,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="512" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
+      <c r="A3" s="508" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="508"/>
+      <c r="C3" s="508"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9563,28 +9566,28 @@
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" s="388" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="388" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="389" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="388" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="388" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="388" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="390" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="388" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="388" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="388" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="390" t="s">
-        <v>120</v>
       </c>
       <c r="I5" s="391"/>
       <c r="J5" s="391"/>
@@ -9608,12 +9611,12 @@
         <v>24</v>
       </c>
       <c r="E6" s="394">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="395"/>
       <c r="G6" s="394">
         <f>E6-F6</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" s="396"/>
       <c r="I6" s="397"/>
@@ -9639,12 +9642,12 @@
         <v>24</v>
       </c>
       <c r="E7" s="400">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" s="379"/>
       <c r="G7" s="400">
-        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
-        <v>26</v>
+        <f t="shared" ref="G7:G16" si="0">E7-F7</f>
+        <v>24</v>
       </c>
       <c r="H7" s="401"/>
       <c r="I7" s="397"/>
@@ -9654,7 +9657,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="398">
-        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+        <f t="shared" ref="A8:A16" si="1">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="399" t="str">
@@ -9670,12 +9673,12 @@
         <v>32</v>
       </c>
       <c r="E8" s="400">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="379"/>
       <c r="G8" s="400">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="402"/>
       <c r="I8" s="397"/>
@@ -9701,12 +9704,12 @@
         <v>32</v>
       </c>
       <c r="E9" s="400">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="379"/>
       <c r="G9" s="400">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="402"/>
       <c r="I9" s="397"/>
@@ -9723,21 +9726,19 @@
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
-      <c r="C10" s="372" t="str">
+      <c r="C10" s="372">
         <f>Данные!C18</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>0</v>
       </c>
       <c r="D10" s="400">
         <f>Данные!$B18</f>
         <v>0</v>
       </c>
-      <c r="E10" s="400">
-        <v>70</v>
-      </c>
+      <c r="E10" s="400"/>
       <c r="F10" s="379"/>
       <c r="G10" s="400">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H10" s="402"/>
       <c r="I10" s="403"/>
@@ -9754,21 +9755,19 @@
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
-      <c r="C11" s="372" t="str">
+      <c r="C11" s="372">
         <f>Данные!C19</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>0</v>
       </c>
       <c r="D11" s="400">
         <f>Данные!$B19</f>
         <v>0</v>
       </c>
-      <c r="E11" s="400">
-        <v>70</v>
-      </c>
+      <c r="E11" s="400"/>
       <c r="F11" s="379"/>
       <c r="G11" s="400">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H11" s="402"/>
       <c r="I11" s="397"/>
@@ -9785,21 +9784,19 @@
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
-      <c r="C12" s="372" t="str">
+      <c r="C12" s="372">
         <f>Данные!C20</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>0</v>
       </c>
       <c r="D12" s="400">
         <f>Данные!$B20</f>
         <v>0</v>
       </c>
-      <c r="E12" s="400">
-        <v>50</v>
-      </c>
+      <c r="E12" s="400"/>
       <c r="F12" s="404"/>
       <c r="G12" s="400">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H12" s="402"/>
       <c r="I12" s="403"/>
@@ -9817,21 +9814,19 @@
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
-      <c r="C13" s="372" t="str">
+      <c r="C13" s="372">
         <f>Данные!C21</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
+        <v>0</v>
       </c>
       <c r="D13" s="400">
         <f>Данные!$B21</f>
         <v>0</v>
       </c>
-      <c r="E13" s="400">
-        <v>24</v>
-      </c>
+      <c r="E13" s="400"/>
       <c r="F13" s="406"/>
       <c r="G13" s="400">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H13" s="402"/>
       <c r="I13" s="403"/>
@@ -9857,13 +9852,11 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="471" t="s">
-        <v>93</v>
-      </c>
+      <c r="E14" s="455"/>
       <c r="F14" s="379"/>
-      <c r="G14" s="400" t="e">
+      <c r="G14" s="400">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>42</v>
@@ -9904,7 +9897,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9922,12 +9915,12 @@
         <v>8</v>
       </c>
       <c r="E16" s="400">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="379"/>
       <c r="G16" s="400">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="402"/>
       <c r="I16" s="403"/>
@@ -9935,318 +9928,357 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="407">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="408" t="str">
-        <f>Данные!A25</f>
-        <v>Охладитель плунжера</v>
-      </c>
-      <c r="C17" s="409" t="str">
-        <f>Данные!C26</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="D17" s="410">
-        <f>Данные!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="410">
-        <v>24</v>
-      </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="410">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H17" s="412"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="397"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="414"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="408"/>
+      <c r="B17" s="409"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="410"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="383"/>
+      <c r="J17" s="383"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="383"/>
+      <c r="B18" s="411" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="364"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="364"/>
       <c r="G18" s="383"/>
       <c r="H18" s="383"/>
       <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="383"/>
-      <c r="B19" s="417" t="s">
+      <c r="J18" s="412"/>
+      <c r="K18" s="412"/>
+      <c r="L18" s="412"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="387" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="388" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="388" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="388" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="388" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
-    </row>
-    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="387" t="s">
+      <c r="G19" s="413" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="H19" s="414" t="s">
         <v>123</v>
       </c>
-      <c r="C20" s="388" t="s">
+      <c r="I19" s="415" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="388" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="388" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="388" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="419" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" s="420" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="421" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="391"/>
-      <c r="K20" s="391"/>
-      <c r="L20" s="391"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="422">
+      <c r="J19" s="415" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="391"/>
+      <c r="L19" s="391"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="416">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="424">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="423">
+      <c r="B20" s="417">
+        <v>44019</v>
+      </c>
+      <c r="C20" s="418">
+        <v>44020</v>
+      </c>
+      <c r="D20" s="417">
         <v>43769</v>
       </c>
-      <c r="E21" s="425">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="425">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="426">
-        <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+      <c r="E20" s="419">
+        <v>98600</v>
+      </c>
+      <c r="F20" s="419">
+        <v>113659</v>
+      </c>
+      <c r="G20" s="420">
+        <f>F20/A$20</f>
+        <v>6.765416666666667E-3</v>
+      </c>
+      <c r="H20" s="421">
+        <f>A20-F20</f>
+        <v>16686341</v>
+      </c>
+      <c r="I20" s="422">
+        <f>1-G20</f>
+        <v>0.99323458333333337</v>
+      </c>
+      <c r="J20" s="480">
+        <v>711</v>
+      </c>
+      <c r="K20" s="403"/>
+      <c r="L20" s="403"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="424"/>
+      <c r="B21" s="425">
+        <v>44165</v>
+      </c>
+      <c r="C21" s="478" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="425">
+        <v>44166</v>
+      </c>
+      <c r="E21" s="426">
+        <v>1700</v>
+      </c>
+      <c r="F21" s="426">
+        <v>60794</v>
+      </c>
+      <c r="G21" s="420">
+        <f>F21/A$20</f>
+        <v>3.6186904761904763E-3</v>
       </c>
       <c r="H21" s="427">
-        <f>A21-F21</f>
-        <v>15768085</v>
+        <f>H20-F21</f>
+        <v>16625547</v>
       </c>
       <c r="I21" s="428">
-        <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="429"/>
-      <c r="K21" s="403"/>
-      <c r="L21" s="403"/>
+        <f>I20-G21</f>
+        <v>0.98961589285714291</v>
+      </c>
+      <c r="J21" s="481"/>
+      <c r="K21" s="383"/>
+      <c r="L21" s="383"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
-      <c r="G22" s="426">
-        <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="433">
+      <c r="A22" s="429"/>
+      <c r="B22" s="479" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="430">
+        <v>44167</v>
+      </c>
+      <c r="D22" s="484">
+        <v>44200</v>
+      </c>
+      <c r="E22" s="431">
+        <v>25500</v>
+      </c>
+      <c r="F22" s="431">
+        <v>61681</v>
+      </c>
+      <c r="G22" s="420">
+        <f>F22/A$20</f>
+        <v>3.6714880952380953E-3</v>
+      </c>
+      <c r="H22" s="427">
         <f>H21-F22</f>
-        <v>15768085</v>
-      </c>
-      <c r="I22" s="434">
+        <v>16563866</v>
+      </c>
+      <c r="I22" s="428">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="383"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="429"/>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
+        <v>0.98594440476190481</v>
+      </c>
+      <c r="J22" s="482">
+        <v>713</v>
+      </c>
+      <c r="K22" s="403"/>
+      <c r="L22" s="403"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="429"/>
+      <c r="B23" s="430">
+        <v>44230</v>
+      </c>
+      <c r="C23" s="430">
+        <v>44231</v>
+      </c>
+      <c r="D23" s="430">
+        <v>44256</v>
+      </c>
+      <c r="E23" s="646">
+        <v>107100</v>
+      </c>
+      <c r="F23" s="646">
+        <v>123520</v>
+      </c>
+      <c r="G23" s="420">
+        <f>F23/A$20</f>
+        <v>7.3523809523809523E-3</v>
+      </c>
+      <c r="H23" s="427">
+        <f>H22-F23</f>
+        <v>16440346</v>
+      </c>
+      <c r="I23" s="428">
+        <f>I22-G23</f>
+        <v>0.97859202380952381</v>
+      </c>
+      <c r="J23" s="640">
+        <v>712</v>
+      </c>
+      <c r="K23" s="423"/>
+      <c r="L23" s="383"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="435"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="429"/>
-      <c r="K24" s="429"/>
+      <c r="A24" s="429"/>
+      <c r="B24" s="430"/>
+      <c r="C24" s="430"/>
+      <c r="D24" s="430"/>
+      <c r="E24" s="646"/>
+      <c r="F24" s="646"/>
+      <c r="G24" s="433"/>
+      <c r="H24" s="646"/>
+      <c r="I24" s="432"/>
+      <c r="J24" s="482"/>
+      <c r="K24" s="434"/>
       <c r="L24" s="383"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="429"/>
-      <c r="K25" s="443"/>
+      <c r="A25" s="429"/>
+      <c r="B25" s="430"/>
+      <c r="C25" s="430"/>
+      <c r="D25" s="430"/>
+      <c r="E25" s="646"/>
+      <c r="F25" s="646"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="646"/>
+      <c r="I25" s="432"/>
+      <c r="J25" s="482"/>
+      <c r="K25" s="423"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="429"/>
-      <c r="K26" s="429"/>
+      <c r="A26" s="429"/>
+      <c r="B26" s="430"/>
+      <c r="C26" s="430"/>
+      <c r="D26" s="430"/>
+      <c r="E26" s="646"/>
+      <c r="F26" s="646"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="646"/>
+      <c r="I26" s="432"/>
+      <c r="J26" s="482"/>
+      <c r="K26" s="423"/>
       <c r="L26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="429"/>
-      <c r="K27" s="429"/>
+      <c r="A27" s="429"/>
+      <c r="B27" s="430"/>
+      <c r="C27" s="430"/>
+      <c r="D27" s="430"/>
+      <c r="E27" s="646"/>
+      <c r="F27" s="646"/>
+      <c r="G27" s="433"/>
+      <c r="H27" s="646"/>
+      <c r="I27" s="432"/>
+      <c r="J27" s="482"/>
+      <c r="K27" s="423"/>
       <c r="L27" s="383"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="429"/>
-      <c r="K28" s="429"/>
+      <c r="A28" s="429"/>
+      <c r="B28" s="430"/>
+      <c r="C28" s="430"/>
+      <c r="D28" s="483"/>
+      <c r="E28" s="646"/>
+      <c r="F28" s="646"/>
+      <c r="G28" s="435"/>
+      <c r="H28" s="646"/>
+      <c r="I28" s="641"/>
+      <c r="J28" s="642"/>
+      <c r="K28" s="423"/>
       <c r="L28" s="383"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="429"/>
-      <c r="K29" s="429"/>
+      <c r="A29" s="429"/>
+      <c r="B29" s="430"/>
+      <c r="C29" s="430"/>
+      <c r="D29" s="483"/>
+      <c r="E29" s="646"/>
+      <c r="F29" s="646"/>
+      <c r="G29" s="433"/>
+      <c r="H29" s="646"/>
+      <c r="I29" s="641"/>
+      <c r="J29" s="642"/>
+      <c r="K29" s="423"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="429"/>
-      <c r="K30" s="429"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="436"/>
+      <c r="B30" s="437"/>
+      <c r="C30" s="437"/>
+      <c r="D30" s="643"/>
+      <c r="E30" s="646"/>
+      <c r="F30" s="646"/>
+      <c r="G30" s="438"/>
+      <c r="H30" s="646"/>
+      <c r="I30" s="644"/>
+      <c r="J30" s="645"/>
+      <c r="K30" s="383"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="383"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="383"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="453" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="456">
-        <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="457">
-        <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="458">
-        <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="459">
-        <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="460">
-        <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="461"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="383"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
+      <c r="A31" s="439" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="440"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="441"/>
+      <c r="E31" s="476">
+        <f>SUM(E20:E30)</f>
+        <v>232900</v>
+      </c>
+      <c r="F31" s="477">
+        <f>SUM(F20:F30)</f>
+        <v>359654</v>
+      </c>
+      <c r="G31" s="442">
+        <f>SUM(G20:G30)</f>
+        <v>2.1407976190476193E-2</v>
+      </c>
+      <c r="H31" s="443">
+        <f>A20-F31</f>
+        <v>16440346</v>
+      </c>
+      <c r="I31" s="444">
+        <f>1-G31</f>
+        <v>0.97859202380952381</v>
+      </c>
+      <c r="J31" s="444"/>
+      <c r="K31" s="445"/>
+      <c r="L31" s="445"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="383"/>
+      <c r="B34" s="383"/>
+      <c r="C34" s="383"/>
+      <c r="D34" s="383"/>
+      <c r="E34" s="383"/>
+      <c r="F34" s="383"/>
+      <c r="G34" s="383"/>
+      <c r="H34" s="383"/>
+      <c r="I34" s="383"/>
+      <c r="J34" s="383"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="509" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="509"/>
+      <c r="C35" s="509"/>
+      <c r="D35" s="509"/>
       <c r="E35" s="383"/>
       <c r="F35" s="383"/>
       <c r="G35" s="383"/>
@@ -10254,13 +10286,17 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="513" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="513"/>
-      <c r="C36" s="513"/>
-      <c r="D36" s="513"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="510" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="510"/>
+      <c r="C36" s="446" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="446" t="s">
+        <v>129</v>
+      </c>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10269,45 +10305,35 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="514" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="514"/>
-      <c r="C37" s="462" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="462" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="383"/>
-      <c r="F37" s="383"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="383"/>
+      <c r="A37" s="511">
+        <f>A20-F31</f>
+        <v>16440346</v>
+      </c>
+      <c r="B37" s="512"/>
+      <c r="C37" s="447">
+        <f>1-G31</f>
+        <v>0.97859202380952381</v>
+      </c>
+      <c r="D37" s="448">
+        <f>(C37/0.8)*100</f>
+        <v>122.32400297619046</v>
+      </c>
+      <c r="E37" s="449" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="449"/>
+      <c r="G37" s="449"/>
+      <c r="H37" s="449"/>
+      <c r="I37" s="449"/>
+      <c r="J37" s="449"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="515">
-        <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="516"/>
-      <c r="C38" s="463">
-        <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="464">
-        <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="465" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
+      <c r="A38" s="383"/>
+      <c r="B38" s="383"/>
+      <c r="C38" s="383"/>
+      <c r="D38" s="383"/>
+      <c r="E38" s="383"/>
+      <c r="F38" s="383"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10316,11 +10342,18 @@
       <c r="D39" s="383"/>
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="383"/>
+      <c r="H39" s="383"/>
+      <c r="I39" s="383"/>
+      <c r="J39" s="383"/>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="383"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
+      <c r="B40" s="450"/>
+      <c r="C40" s="450"/>
       <c r="D40" s="383"/>
       <c r="E40" s="383"/>
       <c r="F40" s="383"/>
@@ -10328,209 +10361,194 @@
       <c r="H40" s="383"/>
       <c r="I40" s="383"/>
       <c r="J40" s="383"/>
-      <c r="K40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="451"/>
+      <c r="B41" s="451"/>
+      <c r="C41" s="451"/>
+      <c r="D41" s="451"/>
+      <c r="E41" s="451"/>
+      <c r="F41" s="451"/>
+      <c r="G41" s="451"/>
+      <c r="H41" s="451"/>
+      <c r="I41" s="503"/>
+      <c r="J41" s="504"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="452"/>
+      <c r="B42" s="453"/>
+      <c r="C42" s="453"/>
+      <c r="D42" s="383"/>
+      <c r="E42" s="383"/>
+      <c r="F42" s="453"/>
+      <c r="G42" s="407"/>
+      <c r="H42" s="453"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
+      <c r="A43" s="452"/>
+      <c r="B43" s="453"/>
+      <c r="C43" s="453"/>
+      <c r="D43" s="453"/>
+      <c r="E43" s="453"/>
+      <c r="F43" s="453"/>
+      <c r="G43" s="407"/>
+      <c r="H43" s="453"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
-      <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
+      <c r="A44" s="452"/>
+      <c r="B44" s="453"/>
+      <c r="C44" s="453"/>
+      <c r="D44" s="383"/>
+      <c r="E44" s="383"/>
+      <c r="F44" s="453"/>
+      <c r="G44" s="407"/>
+      <c r="H44" s="453"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
-      <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
+      <c r="A45" s="452"/>
+      <c r="B45" s="453"/>
+      <c r="C45" s="453"/>
+      <c r="D45" s="453"/>
+      <c r="E45" s="453"/>
+      <c r="F45" s="453"/>
+      <c r="G45" s="407"/>
+      <c r="H45" s="453"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
-      <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
+      <c r="A46" s="452"/>
+      <c r="B46" s="453"/>
+      <c r="C46" s="453"/>
+      <c r="D46" s="383"/>
+      <c r="E46" s="383"/>
+      <c r="F46" s="453"/>
+      <c r="G46" s="407"/>
+      <c r="H46" s="453"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
-      <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
+      <c r="A47" s="452"/>
+      <c r="B47" s="453"/>
+      <c r="C47" s="403"/>
+      <c r="D47" s="454"/>
+      <c r="E47" s="454"/>
+      <c r="F47" s="403"/>
+      <c r="G47" s="403"/>
+      <c r="H47" s="403"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
-      <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403"/>
+      <c r="A48" s="452"/>
+      <c r="B48" s="453"/>
+      <c r="C48" s="453"/>
+      <c r="D48" s="453"/>
+      <c r="E48" s="453"/>
+      <c r="F48" s="453"/>
+      <c r="G48" s="407"/>
+      <c r="H48" s="453"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
-      <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
+      <c r="A49" s="452"/>
+      <c r="B49" s="453"/>
+      <c r="C49" s="453"/>
+      <c r="D49" s="453"/>
+      <c r="E49" s="453"/>
+      <c r="F49" s="453"/>
+      <c r="G49" s="407"/>
+      <c r="H49" s="453"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
-      <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
-      <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="383"/>
-      <c r="B52" s="510"/>
-      <c r="C52" s="510"/>
-      <c r="D52" s="511"/>
-      <c r="E52" s="465"/>
-      <c r="F52" s="383"/>
-      <c r="G52" s="383"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
+      <c r="A50" s="452"/>
+      <c r="B50" s="453"/>
+      <c r="C50" s="453"/>
+      <c r="D50" s="383"/>
+      <c r="E50" s="383"/>
+      <c r="F50" s="453"/>
+      <c r="G50" s="407"/>
+      <c r="H50" s="453"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="383"/>
+      <c r="B51" s="506"/>
+      <c r="C51" s="506"/>
+      <c r="D51" s="507"/>
+      <c r="E51" s="449"/>
+      <c r="F51" s="383"/>
+      <c r="G51" s="383"/>
+      <c r="H51" s="383"/>
+      <c r="I51" s="383"/>
+      <c r="J51" s="383"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="451"/>
+      <c r="B52" s="451"/>
+      <c r="C52" s="451"/>
+      <c r="D52" s="451"/>
+      <c r="E52" s="451"/>
+      <c r="F52" s="451"/>
+      <c r="G52" s="451"/>
+      <c r="H52" s="451"/>
+      <c r="I52" s="503"/>
+      <c r="J52" s="504"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="452"/>
+      <c r="B53" s="383"/>
+      <c r="C53" s="383"/>
+      <c r="D53" s="383"/>
+      <c r="E53" s="383"/>
+      <c r="F53" s="407"/>
+      <c r="G53" s="407"/>
+      <c r="H53" s="453"/>
+      <c r="I53" s="505"/>
+      <c r="J53" s="505"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="468"/>
+      <c r="A54" s="452"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="413"/>
-      <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="D54" s="403"/>
+      <c r="E54" s="403"/>
+      <c r="F54" s="403"/>
+      <c r="G54" s="403"/>
+      <c r="H54" s="403"/>
+      <c r="I54" s="505"/>
+      <c r="J54" s="505"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="468"/>
+      <c r="A55" s="383"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
-      <c r="D55" s="403"/>
-      <c r="E55" s="403"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="383"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="D55" s="383"/>
+      <c r="E55" s="383"/>
+      <c r="F55" s="383"/>
+      <c r="G55" s="383"/>
+      <c r="H55" s="383"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="503"/>
+      <c r="C60" s="504"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="503"/>
+      <c r="C67" s="504"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10539,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:F41"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A34" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10566,7 +10584,7 @@
     </row>
     <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="310"/>
@@ -10575,7 +10593,7 @@
     </row>
     <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" s="310"/>
       <c r="I4" s="310"/>
@@ -10586,7 +10604,7 @@
     <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
@@ -10607,47 +10625,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
+      <c r="D11" s="537"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="537"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="536" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="536"/>
+      <c r="C12" s="536"/>
+      <c r="D12" s="536"/>
+      <c r="E12" s="536"/>
+      <c r="F12" s="536"/>
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="538" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="B13" s="521"/>
-      <c r="C13" s="521"/>
-      <c r="D13" s="521"/>
-      <c r="E13" s="521"/>
-      <c r="F13" s="521"/>
-      <c r="G13" s="521"/>
-      <c r="H13" s="521"/>
-      <c r="I13" s="521"/>
-      <c r="J13" s="521"/>
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10668,7 +10686,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="304"/>
       <c r="C16" s="304"/>
@@ -10772,493 +10790,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="513">
         <v>1</v>
       </c>
-      <c r="B24" s="541" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="542"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="518" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="519"/>
+      <c r="G24" s="522">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="523" t="str">
+      <c r="H24" s="524"/>
+      <c r="I24" s="525"/>
+      <c r="J24" s="526"/>
+    </row>
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="514"/>
+      <c r="B25" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C25" s="524"/>
-      <c r="D25" s="525"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C25" s="531"/>
+      <c r="D25" s="532"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="521"/>
+      <c r="G25" s="523"/>
+      <c r="H25" s="527"/>
+      <c r="I25" s="528"/>
+      <c r="J25" s="529"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="513">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="545" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
-      <c r="E26" s="529" t="str">
+      <c r="B26" s="515" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="516"/>
+      <c r="D26" s="517"/>
+      <c r="E26" s="518" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="519"/>
+      <c r="G26" s="522">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="523" t="str">
+      <c r="H26" s="524"/>
+      <c r="I26" s="525"/>
+      <c r="J26" s="526"/>
+    </row>
+    <row r="27" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="514"/>
+      <c r="B27" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C27" s="531"/>
+      <c r="D27" s="532"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="521"/>
+      <c r="G27" s="523"/>
+      <c r="H27" s="527"/>
+      <c r="I27" s="528"/>
+      <c r="J27" s="529"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="513">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="515" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="516"/>
+      <c r="D28" s="517"/>
+      <c r="E28" s="518" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="519"/>
+      <c r="G28" s="522">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="523" t="str">
+      <c r="H28" s="524"/>
+      <c r="I28" s="525"/>
+      <c r="J28" s="526"/>
+    </row>
+    <row r="29" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="514"/>
+      <c r="B29" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C29" s="531"/>
+      <c r="D29" s="532"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="521"/>
+      <c r="G29" s="523"/>
+      <c r="H29" s="527"/>
+      <c r="I29" s="528"/>
+      <c r="J29" s="529"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="513">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="545" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="529" t="str">
+      <c r="B30" s="515" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="516"/>
+      <c r="D30" s="517"/>
+      <c r="E30" s="518" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="519"/>
+      <c r="G30" s="522">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="523" t="str">
+      <c r="H30" s="524"/>
+      <c r="I30" s="525"/>
+      <c r="J30" s="526"/>
+    </row>
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="514"/>
+      <c r="B31" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C31" s="524"/>
-      <c r="D31" s="525"/>
-      <c r="E31" s="548"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C31" s="531"/>
+      <c r="D31" s="532"/>
+      <c r="E31" s="520"/>
+      <c r="F31" s="521"/>
+      <c r="G31" s="523"/>
+      <c r="H31" s="527"/>
+      <c r="I31" s="528"/>
+      <c r="J31" s="529"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="513">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="545" t="s">
+      <c r="B32" s="515" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="516"/>
+      <c r="D32" s="517"/>
+      <c r="E32" s="518">
         <f>Данные!C18</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+        <v>0</v>
+      </c>
+      <c r="F32" s="519"/>
+      <c r="G32" s="522">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="523" t="str">
+      <c r="H32" s="524"/>
+      <c r="I32" s="525"/>
+      <c r="J32" s="526"/>
+    </row>
+    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="514"/>
+      <c r="B33" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C33" s="524"/>
-      <c r="D33" s="525"/>
-      <c r="E33" s="548"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C33" s="531"/>
+      <c r="D33" s="532"/>
+      <c r="E33" s="520"/>
+      <c r="F33" s="521"/>
+      <c r="G33" s="523"/>
+      <c r="H33" s="527"/>
+      <c r="I33" s="528"/>
+      <c r="J33" s="529"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="513">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="545" t="s">
+      <c r="B34" s="515" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="546"/>
-      <c r="D34" s="547"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="516"/>
+      <c r="D34" s="517"/>
+      <c r="E34" s="518">
         <f>Данные!C19</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+        <v>0</v>
+      </c>
+      <c r="F34" s="519"/>
+      <c r="G34" s="522">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="523" t="str">
+      <c r="H34" s="524"/>
+      <c r="I34" s="525"/>
+      <c r="J34" s="526"/>
+    </row>
+    <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="514"/>
+      <c r="B35" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C35" s="524"/>
-      <c r="D35" s="525"/>
-      <c r="E35" s="548"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C35" s="531"/>
+      <c r="D35" s="532"/>
+      <c r="E35" s="520"/>
+      <c r="F35" s="521"/>
+      <c r="G35" s="523"/>
+      <c r="H35" s="527"/>
+      <c r="I35" s="528"/>
+      <c r="J35" s="529"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="513">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="545" t="s">
+      <c r="B36" s="515" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="546"/>
-      <c r="D36" s="547"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="516"/>
+      <c r="D36" s="517"/>
+      <c r="E36" s="518">
         <f>Данные!C20</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+        <v>0</v>
+      </c>
+      <c r="F36" s="519"/>
+      <c r="G36" s="522">
         <f>Данные!B20</f>
         <v>0</v>
       </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="528"/>
-      <c r="B37" s="523" t="str">
+      <c r="H36" s="524"/>
+      <c r="I36" s="525"/>
+      <c r="J36" s="526"/>
+    </row>
+    <row r="37" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="514"/>
+      <c r="B37" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C37" s="524"/>
-      <c r="D37" s="525"/>
-      <c r="E37" s="548"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C37" s="531"/>
+      <c r="D37" s="532"/>
+      <c r="E37" s="520"/>
+      <c r="F37" s="521"/>
+      <c r="G37" s="523"/>
+      <c r="H37" s="527"/>
+      <c r="I37" s="528"/>
+      <c r="J37" s="529"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="513">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="545" t="s">
+      <c r="B38" s="515" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="516"/>
+      <c r="D38" s="517"/>
+      <c r="E38" s="518">
         <f>Данные!C21</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+        <v>0</v>
+      </c>
+      <c r="F38" s="519"/>
+      <c r="G38" s="522">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528"/>
-      <c r="B39" s="523" t="str">
+      <c r="H38" s="524"/>
+      <c r="I38" s="525"/>
+      <c r="J38" s="526"/>
+    </row>
+    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="514"/>
+      <c r="B39" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C39" s="524"/>
-      <c r="D39" s="525"/>
-      <c r="E39" s="548"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C39" s="531"/>
+      <c r="D39" s="532"/>
+      <c r="E39" s="520"/>
+      <c r="F39" s="521"/>
+      <c r="G39" s="523"/>
+      <c r="H39" s="527"/>
+      <c r="I39" s="528"/>
+      <c r="J39" s="529"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="513">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="515" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="546"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="516"/>
+      <c r="D40" s="517"/>
+      <c r="E40" s="518" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="519"/>
+      <c r="G40" s="522">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="523" t="str">
+      <c r="H40" s="524"/>
+      <c r="I40" s="525"/>
+      <c r="J40" s="526"/>
+    </row>
+    <row r="41" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="514"/>
+      <c r="B41" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C41" s="524"/>
-      <c r="D41" s="525"/>
-      <c r="E41" s="548"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C41" s="531"/>
+      <c r="D41" s="532"/>
+      <c r="E41" s="520"/>
+      <c r="F41" s="521"/>
+      <c r="G41" s="523"/>
+      <c r="H41" s="527"/>
+      <c r="I41" s="528"/>
+      <c r="J41" s="529"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="513">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="545" t="s">
+      <c r="B42" s="515" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="546"/>
-      <c r="D42" s="547"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="516"/>
+      <c r="D42" s="517"/>
+      <c r="E42" s="518">
         <f>Данные!C26</f>
-        <v>ХXI-КПМ-30-1-500-7</v>
-      </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+        <v>0</v>
+      </c>
+      <c r="F42" s="519"/>
+      <c r="G42" s="522">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="523" t="str">
+      <c r="H42" s="524"/>
+      <c r="I42" s="525"/>
+      <c r="J42" s="526"/>
+    </row>
+    <row r="43" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="514"/>
+      <c r="B43" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C43" s="524"/>
-      <c r="D43" s="525"/>
-      <c r="E43" s="548"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C43" s="531"/>
+      <c r="D43" s="532"/>
+      <c r="E43" s="520"/>
+      <c r="F43" s="521"/>
+      <c r="G43" s="523"/>
+      <c r="H43" s="527"/>
+      <c r="I43" s="528"/>
+      <c r="J43" s="529"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="513">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="545" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="546"/>
-      <c r="D44" s="547"/>
-      <c r="E44" s="529">
+      <c r="B44" s="515" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="516"/>
+      <c r="D44" s="517"/>
+      <c r="E44" s="518">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="519"/>
+      <c r="G44" s="522">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="523" t="str">
+      <c r="H44" s="524"/>
+      <c r="I44" s="525"/>
+      <c r="J44" s="526"/>
+    </row>
+    <row r="45" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="514"/>
+      <c r="B45" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C45" s="524"/>
-      <c r="D45" s="525"/>
-      <c r="E45" s="548"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C45" s="531"/>
+      <c r="D45" s="532"/>
+      <c r="E45" s="520"/>
+      <c r="F45" s="521"/>
+      <c r="G45" s="523"/>
+      <c r="H45" s="527"/>
+      <c r="I45" s="528"/>
+      <c r="J45" s="529"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="513">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="515" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="547"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="516"/>
+      <c r="D46" s="517"/>
+      <c r="E46" s="518" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-26-2-1000-18 ExtraNew</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="519"/>
+      <c r="G46" s="522">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="523" t="str">
+      <c r="H46" s="524"/>
+      <c r="I46" s="525"/>
+      <c r="J46" s="526"/>
+    </row>
+    <row r="47" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="514"/>
+      <c r="B47" s="530" t="str">
         <f>Данные!$A$30</f>
-        <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-7)</v>
-      </c>
-      <c r="C47" s="524"/>
-      <c r="D47" s="525"/>
-      <c r="E47" s="548"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+        <v>(к серийному формокомплекту ХXI-КПМ-26-2-1000-18 Экстра New)</v>
+      </c>
+      <c r="C47" s="531"/>
+      <c r="D47" s="532"/>
+      <c r="E47" s="520"/>
+      <c r="F47" s="521"/>
+      <c r="G47" s="523"/>
+      <c r="H47" s="527"/>
+      <c r="I47" s="528"/>
+      <c r="J47" s="529"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11387,70 +11405,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11467,10 +11421,77 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="9" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -11521,47 +11542,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11572,9 +11593,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11593,22 +11614,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11619,22 +11640,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11645,27 +11666,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="584"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="587"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12137,12 +12158,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="549" t="s">
+      <c r="B23" s="580" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="550"/>
-      <c r="D23" s="550"/>
-      <c r="E23" s="551"/>
+      <c r="C23" s="581"/>
+      <c r="D23" s="581"/>
+      <c r="E23" s="582"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12164,12 +12185,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="587" t="s">
+      <c r="B24" s="570" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="588"/>
-      <c r="D24" s="588"/>
-      <c r="E24" s="589"/>
+      <c r="C24" s="571"/>
+      <c r="D24" s="571"/>
+      <c r="E24" s="572"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12212,28 +12233,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="562" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" s="562"/>
-      <c r="M27" s="562"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
+      <c r="K27" s="545" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="545"/>
+      <c r="M27" s="545"/>
+      <c r="N27" s="459"/>
+      <c r="O27" s="459"/>
+      <c r="P27" s="475"/>
+      <c r="Q27" s="475"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="O28" s="559"/>
-      <c r="P28" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q28" s="561"/>
+      <c r="N28" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="O28" s="542"/>
+      <c r="P28" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12250,13 +12278,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12322,50 +12343,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598">
+      <c r="B2" s="594">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="614"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12376,9 +12397,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12397,22 +12418,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12423,22 +12444,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12449,27 +12470,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12660,12 +12681,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="596" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="597"/>
-      <c r="D14" s="597"/>
-      <c r="E14" s="597"/>
+      <c r="B14" s="618" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="619"/>
+      <c r="D14" s="619"/>
+      <c r="E14" s="619"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12687,13 +12708,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="549" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="550"/>
-      <c r="D15" s="550"/>
-      <c r="E15" s="550"/>
-      <c r="F15" s="595"/>
+      <c r="B15" s="580" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="581"/>
+      <c r="D15" s="581"/>
+      <c r="E15" s="581"/>
+      <c r="F15" s="617"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12712,12 +12733,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="570" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="572"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12764,28 +12785,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="562" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="562"/>
-      <c r="N19" s="562"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="L19" s="545" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="545"/>
+      <c r="N19" s="545"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="542"/>
+      <c r="Q20" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12799,17 +12831,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12883,47 +12904,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12934,9 +12955,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12955,22 +12976,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12981,22 +13002,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13007,27 +13028,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="584"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="587"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13497,35 +13518,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="L23" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="620"/>
+      <c r="N23" s="620"/>
+      <c r="O23" s="459"/>
+      <c r="P23" s="459"/>
+      <c r="Q23" s="475"/>
+      <c r="R23" s="475"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R24" s="561"/>
+      <c r="O24" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="542"/>
+      <c r="Q24" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13540,6 +13554,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13607,47 +13628,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="621"/>
+      <c r="Q2" s="621"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13658,9 +13679,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13679,22 +13700,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="552"/>
-      <c r="J5" s="553"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="498"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13705,22 +13726,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="592"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="552"/>
-      <c r="J6" s="553"/>
-      <c r="K6" s="503"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="498"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13731,27 +13752,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="555"/>
-      <c r="D7" s="505">
+      <c r="C7" s="584"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="554" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="583" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="558"/>
-      <c r="K7" s="493">
+      <c r="J7" s="587"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14031,34 +14052,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" s="627"/>
-      <c r="N18" s="627"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="L18" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="620"/>
+      <c r="N18" s="620"/>
+      <c r="O18" s="459"/>
+      <c r="P18" s="459"/>
+      <c r="Q18" s="475"/>
+      <c r="R18" s="475"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R19" s="561"/>
+      <c r="O19" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="542"/>
+      <c r="Q19" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14074,6 +14089,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14102,7 +14123,7 @@
   </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -14145,60 +14166,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B18</f>
         <v>0</v>
       </c>
-      <c r="L2" s="618"/>
-      <c r="M2" s="629"/>
-      <c r="N2" s="630"/>
-      <c r="O2" s="630"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
-      <c r="R2" s="631"/>
+      <c r="L2" s="614"/>
+      <c r="M2" s="622"/>
+      <c r="N2" s="623"/>
+      <c r="O2" s="623"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
+      <c r="R2" s="624"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
-      <c r="M3" s="632"/>
-      <c r="N3" s="633"/>
-      <c r="O3" s="633"/>
-      <c r="P3" s="633"/>
-      <c r="Q3" s="633"/>
-      <c r="R3" s="634"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
+      <c r="M3" s="625"/>
+      <c r="N3" s="626"/>
+      <c r="O3" s="626"/>
+      <c r="P3" s="626"/>
+      <c r="Q3" s="626"/>
+      <c r="R3" s="627"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14207,95 +14228,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="632"/>
-      <c r="N4" s="633"/>
-      <c r="O4" s="633"/>
-      <c r="P4" s="633"/>
-      <c r="Q4" s="633"/>
-      <c r="R4" s="634"/>
+      <c r="M4" s="625"/>
+      <c r="N4" s="626"/>
+      <c r="O4" s="626"/>
+      <c r="P4" s="626"/>
+      <c r="Q4" s="626"/>
+      <c r="R4" s="627"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
-      <c r="M5" s="632"/>
-      <c r="N5" s="633"/>
-      <c r="O5" s="633"/>
-      <c r="P5" s="633"/>
-      <c r="Q5" s="633"/>
-      <c r="R5" s="634"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
+      <c r="M5" s="625"/>
+      <c r="N5" s="626"/>
+      <c r="O5" s="626"/>
+      <c r="P5" s="626"/>
+      <c r="Q5" s="626"/>
+      <c r="R5" s="627"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
-      <c r="M6" s="632"/>
-      <c r="N6" s="633"/>
-      <c r="O6" s="633"/>
-      <c r="P6" s="633"/>
-      <c r="Q6" s="633"/>
-      <c r="R6" s="634"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
+      <c r="M6" s="625"/>
+      <c r="N6" s="626"/>
+      <c r="O6" s="626"/>
+      <c r="P6" s="626"/>
+      <c r="Q6" s="626"/>
+      <c r="R6" s="627"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
-      <c r="M7" s="632"/>
-      <c r="N7" s="633"/>
-      <c r="O7" s="633"/>
-      <c r="P7" s="633"/>
-      <c r="Q7" s="633"/>
-      <c r="R7" s="634"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="625"/>
+      <c r="N7" s="626"/>
+      <c r="O7" s="626"/>
+      <c r="P7" s="626"/>
+      <c r="Q7" s="626"/>
+      <c r="R7" s="627"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14447,38 +14468,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="470" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="460"/>
+      <c r="B13" s="461" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478">
+      <c r="C13" s="462">
         <v>38.1</v>
       </c>
-      <c r="D13" s="479">
+      <c r="D13" s="463">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="463">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="464" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
+        <v>135</v>
+      </c>
+      <c r="H13" s="465"/>
+      <c r="I13" s="466"/>
+      <c r="J13" s="466"/>
+      <c r="K13" s="466"/>
+      <c r="L13" s="466"/>
+      <c r="M13" s="467"/>
+      <c r="N13" s="467"/>
+      <c r="O13" s="467"/>
+      <c r="P13" s="467"/>
+      <c r="Q13" s="467"/>
+      <c r="R13" s="468"/>
+      <c r="S13" s="469"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14498,7 +14519,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="296" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
@@ -14624,7 +14645,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="296" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -14672,12 +14693,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="587" t="s">
+      <c r="B20" s="570" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="588"/>
-      <c r="D20" s="588"/>
-      <c r="E20" s="589"/>
+      <c r="C20" s="571"/>
+      <c r="D20" s="571"/>
+      <c r="E20" s="572"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14722,28 +14743,34 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="627"/>
-      <c r="N23" s="627"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="L23" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="620"/>
+      <c r="N23" s="620"/>
+      <c r="O23" s="459"/>
+      <c r="P23" s="459"/>
+      <c r="Q23" s="475"/>
+      <c r="R23" s="475"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R24" s="561"/>
+      <c r="O24" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="542"/>
+      <c r="Q24" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14760,12 +14787,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14830,47 +14851,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="598"/>
-      <c r="C2" s="599"/>
-      <c r="D2" s="600"/>
-      <c r="E2" s="607" t="s">
+      <c r="B2" s="594"/>
+      <c r="C2" s="595"/>
+      <c r="D2" s="596"/>
+      <c r="E2" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
-      <c r="H2" s="609"/>
-      <c r="I2" s="613" t="s">
+      <c r="F2" s="604"/>
+      <c r="G2" s="604"/>
+      <c r="H2" s="605"/>
+      <c r="I2" s="609" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="614"/>
-      <c r="K2" s="617">
+      <c r="J2" s="610"/>
+      <c r="K2" s="613">
         <f>Данные!B19</f>
         <v>0</v>
       </c>
-      <c r="L2" s="618"/>
+      <c r="L2" s="614"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="601"/>
-      <c r="C3" s="602"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="610" t="s">
+      <c r="B3" s="597"/>
+      <c r="C3" s="598"/>
+      <c r="D3" s="599"/>
+      <c r="E3" s="606" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="611"/>
-      <c r="G3" s="611"/>
-      <c r="H3" s="612"/>
-      <c r="I3" s="615"/>
-      <c r="J3" s="616"/>
-      <c r="K3" s="619"/>
-      <c r="L3" s="620"/>
+      <c r="F3" s="607"/>
+      <c r="G3" s="607"/>
+      <c r="H3" s="608"/>
+      <c r="I3" s="611"/>
+      <c r="J3" s="612"/>
+      <c r="K3" s="615"/>
+      <c r="L3" s="616"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14881,9 +14902,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="604"/>
-      <c r="C4" s="605"/>
-      <c r="D4" s="606"/>
+      <c r="B4" s="600"/>
+      <c r="C4" s="601"/>
+      <c r="D4" s="602"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14902,22 +14923,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="621"/>
-      <c r="D5" s="502" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="497" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="504"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="624"/>
-      <c r="L5" s="504"/>
+      <c r="E5" s="498"/>
+      <c r="F5" s="498"/>
+      <c r="G5" s="498"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="499"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14928,22 +14949,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="496" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="491" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-2-1000-18 (Экстра New)</v>
       </c>
-      <c r="E6" s="593"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="593"/>
-      <c r="H6" s="594"/>
-      <c r="I6" s="622"/>
-      <c r="J6" s="623"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="504"/>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="499"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14954,27 +14975,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="554" t="s">
+      <c r="B7" s="583" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="625"/>
-      <c r="D7" s="505">
+      <c r="C7" s="592"/>
+      <c r="D7" s="500">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="556"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="556"/>
-      <c r="H7" s="557"/>
-      <c r="I7" s="626" t="s">
+      <c r="E7" s="585"/>
+      <c r="F7" s="585"/>
+      <c r="G7" s="585"/>
+      <c r="H7" s="586"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="625"/>
-      <c r="K7" s="493">
+      <c r="J7" s="592"/>
+      <c r="K7" s="488">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="494"/>
+      <c r="L7" s="489"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15099,38 +15120,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="470" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="460"/>
+      <c r="B12" s="471" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488">
+      <c r="C12" s="472">
         <v>28.6</v>
       </c>
-      <c r="D12" s="482">
+      <c r="D12" s="466">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="466">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="464" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
+        <v>137</v>
+      </c>
+      <c r="H12" s="473"/>
+      <c r="I12" s="466"/>
+      <c r="J12" s="466"/>
+      <c r="K12" s="466"/>
+      <c r="L12" s="466"/>
+      <c r="M12" s="466"/>
+      <c r="N12" s="466"/>
+      <c r="O12" s="466"/>
+      <c r="P12" s="466"/>
+      <c r="Q12" s="466"/>
+      <c r="R12" s="474"/>
+      <c r="S12" s="469"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15231,12 +15252,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="570" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="572"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15281,28 +15302,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="627" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="627"/>
-      <c r="N19" s="627"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="L19" s="620" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="620"/>
+      <c r="N19" s="620"/>
+      <c r="O19" s="459"/>
+      <c r="P19" s="459"/>
+      <c r="Q19" s="475"/>
+      <c r="R19" s="475"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>144</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="542" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="542"/>
+      <c r="Q20" s="543" t="s">
+        <v>139</v>
+      </c>
+      <c r="R20" s="544"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15315,16 +15346,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
